--- a/biology/Botanique/Etlingera/Etlingera.xlsx
+++ b/biology/Botanique/Etlingera/Etlingera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Etlingera est un genre de plantes, appartenant à la famille des Zingiberaceae, qui comprend environ 100 espèces décrites à ce jour[1]. Ce sont des plantes herbacées vivaces, parfois de grande taille, qui sont répandues du sous-continent indien aux îles du Pacifique, avec un maximum de variétés en Malaisie. L'une des espèces les plus connues est la Rose de porcelaine (Etlingera elatior).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Etlingera est un genre de plantes, appartenant à la famille des Zingiberaceae, qui comprend environ 100 espèces décrites à ce jour. Ce sont des plantes herbacées vivaces, parfois de grande taille, qui sont répandues du sous-continent indien aux îles du Pacifique, avec un maximum de variétés en Malaisie. L'une des espèces les plus connues est la Rose de porcelaine (Etlingera elatior).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Quelques espèces en fleur
@@ -550,29 +564,102 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit en 1792 par le botaniste allemand Paul Dietrich Giseke (1741-1796).
-Synonymes
-Selon GRIN            (15 septembre 2015)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Etlingera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Etlingera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Selon GRIN            (15 septembre 2015) :
 Achasma Griff.
 Geanthus Reinw.
 Nicolaia Horan.
 Phaeomeria Lindl. ex K. Schum.
-Selon Tropicos                                           (15 septembre 2015)[3] :
+Selon Tropicos                                           (15 septembre 2015) :
 Achasma Griff.
 Diracodes Blume
 Geanthus Reinw.
 Nicolaia Horan.
-Liste d'espèces
-Selon GRIN            (15 septembre 2015)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Etlingera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Etlingera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (15 septembre 2015) :
 Etlingera elatior (Jack) R. M. Sm. - la Rose de porcelaine
 Etlingera harmandii (Gagnep.) R. M. Sm.
 Etlingera hemisphaerica (Blume) R. M. Sm.
 Etlingera littoralis (J. Koenig ex Retz.) Giseke
 Etlingera punicea (Roxb.) R. M. Sm.
 Etlingera solaris (Blume) R. M. Sm.
-Selon World Checklist of Selected Plant Families (WCSP)  (15 septembre 2015)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (15 septembre 2015) :
 Etlingera acanthodes A.D.Poulsen (2012)
 Etlingera aculeatissima A.D.Poulsen (2012)
 Etlingera alba (Blume) A.D.Poulsen (2012)
@@ -716,8 +803,47 @@
 Etlingera xanthoparyphe (K.Schum.) R.M.Sm. (1986)
 Etlingera yessiae A.D.Poulsen (2012)
 Etlingera yunnanensis (T.L.Wu &amp; S.J.Chen) R.M.Sm. (1986)
-Espèces aux noms synonymes, obsolètes et leurs taxons de référence
-Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Etlingera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Etlingera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 sept 2011) :
 </t>
         </is>
       </c>
